--- a/AnimalCrossing/back/crawling/fish2.xlsx
+++ b/AnimalCrossing/back/crawling/fish2.xlsx
@@ -40,106 +40,106 @@
     <t>판매 가격(벨)</t>
   </si>
   <si>
-    <t>클리오네[2]クリオネSea butterfly</t>
-  </si>
-  <si>
-    <t>해마タツノオトシゴSea horse</t>
-  </si>
-  <si>
-    <t>흰동가리クマノミClown fish</t>
-  </si>
-  <si>
-    <t>블루탱ナンヨウハギSurgeonfish</t>
-  </si>
-  <si>
-    <t>나비고기チョウチョウウオButterfly fish</t>
-  </si>
-  <si>
-    <t>나폴레옹피시ナポレオンフィッシュNapoleonfish</t>
-  </si>
-  <si>
-    <t>쏨뱅이[3]ミノカサゴZebra turkeyfish</t>
-  </si>
-  <si>
-    <t>복어フグBlowfish</t>
-  </si>
-  <si>
-    <t>가시복ハリセンボンPuffer fish</t>
-  </si>
-  <si>
-    <t>멸치アンチョビAnchovy</t>
-  </si>
-  <si>
-    <t>전갱이アジHorse mackerel</t>
-  </si>
-  <si>
-    <t>돌돔イシダイBarred knifejaw</t>
-  </si>
-  <si>
-    <t>농어スズキSea bass</t>
-  </si>
-  <si>
-    <t>도미タイRed snapper</t>
-  </si>
-  <si>
-    <t>가자미カレイDab</t>
-  </si>
-  <si>
-    <t>넙치ヒラメOlive flounder</t>
-  </si>
-  <si>
-    <t>오징어イカSquid</t>
-  </si>
-  <si>
-    <t>곰치ウツボMoray eel</t>
-  </si>
-  <si>
-    <t>리본장어ハナヒゲウツボRibbon eel</t>
-  </si>
-  <si>
-    <t>다랑어マグロTuna</t>
-  </si>
-  <si>
-    <t>청새치カジキBlue marlin</t>
-  </si>
-  <si>
-    <t>무명갈전갱이[4]ロウニンアジGiant trevally</t>
-  </si>
-  <si>
-    <t>만새기シイラMahi-mahi</t>
-  </si>
-  <si>
-    <t>개복치マンボウOcean sunfish</t>
-  </si>
-  <si>
-    <t>가오리エイRay</t>
-  </si>
-  <si>
-    <t>톱상어[5]ノコギリザメSaw shark</t>
-  </si>
-  <si>
-    <t>귀상어シュモクザメHammerhead shark</t>
-  </si>
-  <si>
-    <t>상어[6]サメGreat white shark</t>
-  </si>
-  <si>
-    <t>고래상어ジンベエザメWhale shark</t>
-  </si>
-  <si>
-    <t>빨판상어コバンザメSuckerfish</t>
-  </si>
-  <si>
-    <t>초롱아귀チョウチンアンコウFootball fish</t>
-  </si>
-  <si>
-    <t>산갈치リュウグウノツカイOarfish</t>
-  </si>
-  <si>
-    <t>데메니기스デメニギスBarreleye</t>
-  </si>
-  <si>
-    <t>실러캔스シーラカンスCoelacanth</t>
+    <t xml:space="preserve">클리오네 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">해마 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">흰동가리 </t>
+  </si>
+  <si>
+    <t>블루탱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">나비고기 </t>
+  </si>
+  <si>
+    <t>나폴레옹피시</t>
+  </si>
+  <si>
+    <t xml:space="preserve">쏨뱅이 </t>
+  </si>
+  <si>
+    <t>복어</t>
+  </si>
+  <si>
+    <t xml:space="preserve">가시복 </t>
+  </si>
+  <si>
+    <t>멸치</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전갱이 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">돌돔 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">농어 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">도미 </t>
+  </si>
+  <si>
+    <t>가자미</t>
+  </si>
+  <si>
+    <t xml:space="preserve">넙치 </t>
+  </si>
+  <si>
+    <t>오징어</t>
+  </si>
+  <si>
+    <t xml:space="preserve">곰치 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">리본장어 </t>
+  </si>
+  <si>
+    <t>다랑어</t>
+  </si>
+  <si>
+    <t xml:space="preserve">청새치 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">무명갈전갱이 </t>
+  </si>
+  <si>
+    <t>만새기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">개복치 </t>
+  </si>
+  <si>
+    <t>가오리</t>
+  </si>
+  <si>
+    <t xml:space="preserve">톱상어 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">귀상어 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">상어  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">고래상어 </t>
+  </si>
+  <si>
+    <t>빨판상어</t>
+  </si>
+  <si>
+    <t xml:space="preserve">초롱아귀 </t>
+  </si>
+  <si>
+    <t>산갈치</t>
+  </si>
+  <si>
+    <t>데메니기스</t>
+  </si>
+  <si>
+    <t>실러캔스</t>
   </si>
   <si>
     <t>12월~3월</t>
@@ -283,10 +283,10 @@
     <t>길다</t>
   </si>
   <si>
-    <t>특대(등지느러미)</t>
-  </si>
-  <si>
-    <t>약간 크다(등지느러미)</t>
+    <t>특대(등지느러미)[지느러미]</t>
+  </si>
+  <si>
+    <t>약간 크다(등지느러미)[지느러미]</t>
   </si>
   <si>
     <t>1000</t>
